--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3115.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3115.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.596752873300747</v>
+        <v>1.933979272842407</v>
       </c>
       <c r="B1">
-        <v>1.887030838875688</v>
+        <v>2.653825998306274</v>
       </c>
       <c r="C1">
-        <v>2.466314560078007</v>
+        <v>2.87424635887146</v>
       </c>
       <c r="D1">
-        <v>5.3372243550717</v>
+        <v>3.360890865325928</v>
       </c>
       <c r="E1">
-        <v>2.003256559740208</v>
+        <v>1.038919687271118</v>
       </c>
     </row>
   </sheetData>
